--- a/app/Licenciatura_em_Financas_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Financas_Pos_Laboral.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -184,9 +184,6 @@
     <t>Margarida Luis Zucula</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>Rute Zefanias Nhamue</t>
   </si>
   <si>
-    <t>Distrito de Zavala</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -256,9 +250,6 @@
     <t>Maria Alice Inguane</t>
   </si>
   <si>
-    <t>Distrito de Chibuto</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -283,9 +274,6 @@
     <t>VirgÍnia Armando Tinga</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Cartao de Eleitor</t>
   </si>
   <si>
@@ -334,9 +322,6 @@
     <t>Felismina Manuel Machaiei</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090101771474P</t>
   </si>
   <si>
@@ -475,9 +460,6 @@
     <t>Incognita</t>
   </si>
   <si>
-    <t>Distrito de Homoine</t>
-  </si>
-  <si>
     <t>080101042323M</t>
   </si>
   <si>
@@ -523,9 +505,6 @@
     <t>Fatima Januario Nhate</t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>100304155819N</t>
   </si>
   <si>
@@ -590,9 +569,6 @@
   </si>
   <si>
     <t>Micaela Farael</t>
-  </si>
-  <si>
-    <t>Distrito de Manjacaze</t>
   </si>
   <si>
     <t>110500974798A</t>
@@ -1861,7 +1837,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1877,7 +1853,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1893,7 +1869,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1909,7 +1885,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1925,7 +1901,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1940,9 +1916,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -1950,7 +1924,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -1961,7 +1935,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1970,7 +1944,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -1982,7 +1956,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -1990,7 +1964,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2086,7 +2060,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2129,7 +2103,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2456,7 +2430,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2472,7 +2446,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2488,7 +2462,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2504,7 +2478,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2520,7 +2494,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2535,9 +2509,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2545,7 +2517,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2556,7 +2528,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2565,7 +2537,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2577,7 +2549,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2585,7 +2557,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2681,7 +2653,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2724,7 +2696,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3051,7 +3023,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3067,7 +3039,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3083,7 +3055,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3099,7 +3071,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3115,7 +3087,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3130,9 +3102,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3140,7 +3110,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3151,7 +3121,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3160,7 +3130,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3172,7 +3142,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3180,7 +3150,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3276,7 +3246,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3319,7 +3289,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3646,7 +3616,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3662,7 +3632,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3678,7 +3648,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3694,7 +3664,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3710,7 +3680,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3725,9 +3695,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>146</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3735,7 +3703,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3746,7 +3714,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3755,7 +3723,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3767,7 +3735,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3775,7 +3743,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3871,7 +3839,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3914,7 +3882,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4241,7 +4209,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4257,7 +4225,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4273,7 +4241,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4289,7 +4257,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4305,7 +4273,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4320,9 +4288,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4330,7 +4296,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4341,7 +4307,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4350,7 +4316,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4362,7 +4328,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4370,7 +4336,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4466,7 +4432,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4509,7 +4475,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4836,7 +4802,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4852,7 +4818,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4868,7 +4834,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4884,7 +4850,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4900,7 +4866,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4915,9 +4881,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4925,7 +4889,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4936,7 +4900,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4945,7 +4909,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4957,7 +4921,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4965,7 +4929,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5061,7 +5025,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5104,7 +5068,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5431,7 +5395,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5447,7 +5411,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5463,7 +5427,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5479,7 +5443,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5495,7 +5459,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5510,9 +5474,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5520,7 +5482,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5531,7 +5493,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5540,7 +5502,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5552,7 +5514,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5560,7 +5522,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5656,7 +5618,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5699,7 +5661,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6026,7 +5988,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6042,7 +6004,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6058,7 +6020,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6074,7 +6036,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6090,7 +6052,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6105,9 +6067,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6115,7 +6075,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6126,7 +6086,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6135,7 +6095,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6147,7 +6107,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6155,7 +6115,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6251,7 +6211,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6294,7 +6254,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6621,7 +6581,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6637,7 +6597,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6653,7 +6613,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6669,7 +6629,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6685,7 +6645,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6700,9 +6660,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>185</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6710,7 +6668,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6721,7 +6679,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6730,7 +6688,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6742,7 +6700,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6750,7 +6708,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6846,7 +6804,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6889,7 +6847,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7323,9 +7281,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7333,7 +7289,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7344,7 +7300,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7353,7 +7309,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7365,7 +7321,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7373,7 +7329,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7469,7 +7425,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7512,7 +7468,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7867,7 +7823,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7883,7 +7839,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7899,7 +7855,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7915,7 +7871,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7931,7 +7887,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7946,9 +7902,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7956,7 +7910,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7967,7 +7921,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7976,7 +7930,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7988,7 +7942,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7996,7 +7950,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8092,7 +8046,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8135,7 +8089,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8462,7 +8416,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8478,7 +8432,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8494,7 +8448,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8510,7 +8464,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8526,7 +8480,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8541,9 +8495,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8551,7 +8503,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8562,7 +8514,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8571,7 +8523,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8583,7 +8535,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8687,7 +8639,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8730,7 +8682,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9057,7 +9009,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9073,7 +9025,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9089,7 +9041,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9105,7 +9057,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9121,7 +9073,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9136,9 +9088,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9146,7 +9096,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9157,7 +9107,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9166,7 +9116,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9178,7 +9128,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9186,7 +9136,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9282,7 +9232,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9325,7 +9275,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9652,7 +9602,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9668,7 +9618,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9684,7 +9634,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9700,7 +9650,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9716,7 +9666,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9731,9 +9681,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9741,7 +9689,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9752,7 +9700,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9761,7 +9709,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9773,7 +9721,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9781,7 +9729,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9877,7 +9825,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9920,7 +9868,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10247,7 +10195,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10263,7 +10211,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10279,7 +10227,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10295,7 +10243,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10311,7 +10259,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10326,9 +10274,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10336,7 +10282,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10347,7 +10293,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10356,7 +10302,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10368,7 +10314,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10376,7 +10322,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10472,7 +10418,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10515,7 +10461,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10842,7 +10788,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10858,7 +10804,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10874,7 +10820,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10890,7 +10836,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10906,7 +10852,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10921,9 +10867,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10931,7 +10875,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10942,7 +10886,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10951,7 +10895,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10963,7 +10907,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10971,7 +10915,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11067,7 +11011,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11110,7 +11054,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11437,7 +11381,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11453,7 +11397,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11469,7 +11413,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11485,7 +11429,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11501,7 +11445,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11516,9 +11460,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11526,7 +11468,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11537,7 +11479,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11546,7 +11488,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11558,7 +11500,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11566,7 +11508,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11662,7 +11604,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11705,7 +11647,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
